--- a/src/main/resources/spreadsheetFiles/Category 02.xlsx
+++ b/src/main/resources/spreadsheetFiles/Category 02.xlsx
@@ -12,6 +12,7 @@
     <sheet name="category" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="URL" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="color" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="test" r:id="rId7" sheetId="5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -307,7 +308,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.12"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="10.12" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -464,10 +465,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.96"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="7.26" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="17.67" collapsed="false" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="36.86" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="18.96" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -611,4 +612,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>